--- a/documentation/ProjectBudget.xlsx
+++ b/documentation/ProjectBudget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kehwu\OneDrive\Desktop\Lazy School Folder\CENG317\EmegensUI (Automotive UI)\emegensui-automotive-ui\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E80A53D-5BDB-4A51-AE64-95127C604276}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CA5E05-BA21-4F5E-AC8D-ABAB3121FDD0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DF219F94-FA5E-4361-8FF9-C0B1F7CCF8F9}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>Module with GPS(Ublox CAM-M8) &amp; LSM9DS1 Sensors</t>
   </si>
   <si>
-    <t>Ozzmaker.com</t>
-  </si>
-  <si>
     <t>3x STM32Duino Blue Pill</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>Blue Pill w/ Arduino Boot Loader</t>
   </si>
   <si>
-    <t>Amazon.ca</t>
-  </si>
-  <si>
     <t>Adafruit 9-DOF Breakout</t>
   </si>
   <si>
@@ -92,9 +86,6 @@
     <t xml:space="preserve">3387 (LSM9DS1) </t>
   </si>
   <si>
-    <t>Adafruit.com</t>
-  </si>
-  <si>
     <t>Ublox CAM-M8Q Sensor</t>
   </si>
   <si>
@@ -104,9 +95,6 @@
     <t>CAM-M8Q-0</t>
   </si>
   <si>
-    <t>U-Blox.com</t>
-  </si>
-  <si>
     <t>Total Unit Cost</t>
   </si>
   <si>
@@ -126,6 +114,18 @@
   </si>
   <si>
     <t>Kevin Lieng</t>
+  </si>
+  <si>
+    <t>Amazon.ca http://tiny.cc/dagbdz</t>
+  </si>
+  <si>
+    <t>Ozzmaker.com http://tiny.cc/pigbdz</t>
+  </si>
+  <si>
+    <t>Adafruit.com http://tiny.cc/0mgbdz</t>
+  </si>
+  <si>
+    <t>U-Blox.com http://tiny.cc/ctgbdz</t>
   </si>
 </sst>
 </file>
@@ -135,7 +135,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +173,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -197,22 +205,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -230,9 +233,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -548,7 +561,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,17 +577,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -609,166 +622,166 @@
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="D3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="4">
         <v>55.69</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="5">
         <v>21.56</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="5">
         <v>0</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="6">
         <f>E3+F3+G3+H3</f>
         <v>77.25</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="D4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="5">
         <v>19.98</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <v>0</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="5">
         <v>0</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="5">
         <v>2.6</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="6">
         <f>E4+F4+G4+H4</f>
         <v>22.580000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="D5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="5">
         <v>14.95</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <v>22.05</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="5">
         <v>1.94</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="5">
         <v>0</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="6">
         <f>E5+F5+G5+H5</f>
         <v>38.94</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="7">
+        <v>20</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="5">
         <v>33.14</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>51.7</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <v>6.54</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="5">
         <v>0</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="6">
         <f>E6+F6+G6+H6</f>
         <v>91.38000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="9">
+        <v>21</v>
+      </c>
+      <c r="E9" s="7">
         <f>E3+E4+E5+E6</f>
         <v>123.76</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="9">
+        <v>22</v>
+      </c>
+      <c r="E10" s="7">
         <f>F3+F4+F5+F6</f>
         <v>95.31</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="9">
+        <v>23</v>
+      </c>
+      <c r="E11" s="7">
         <f>G3+G4+G5+G6</f>
         <v>8.48</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="9">
+        <v>24</v>
+      </c>
+      <c r="E12" s="7">
         <f>H3+H4+H5+H6</f>
         <v>2.6</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>31</v>
+      <c r="A14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="9">
+        <v>25</v>
+      </c>
+      <c r="E14" s="7">
         <f>I3+I4+I5+I6</f>
         <v>230.14999999999998</v>
       </c>
@@ -777,6 +790,12 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{8FABBEA0-C2CB-4B54-BB5C-99B179AE735B}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{6CE1EFD1-439C-4552-B5EE-85E6B8CBD4A7}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{746CCBB2-AC6A-4C77-BE6C-530070A145E8}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{7D93DA1E-BC11-496B-B2DE-E79569EC400D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/documentation/ProjectBudget.xlsx
+++ b/documentation/ProjectBudget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kehwu\OneDrive\Desktop\Lazy School Folder\CENG317\EmegensUI (Automotive UI)\emegensui-automotive-ui\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CA5E05-BA21-4F5E-AC8D-ABAB3121FDD0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77929596-C59D-454D-AD08-1A083E7C7B7D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DF219F94-FA5E-4361-8FF9-C0B1F7CCF8F9}"/>
+    <workbookView xWindow="4695" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{DF219F94-FA5E-4361-8FF9-C0B1F7CCF8F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -233,14 +233,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -577,17 +577,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -625,7 +625,7 @@
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="4">
@@ -655,7 +655,7 @@
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="5">
@@ -685,7 +685,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="5">
@@ -715,7 +715,7 @@
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E6" s="5">
@@ -797,5 +797,6 @@
     <hyperlink ref="D6" r:id="rId4" xr:uid="{7D93DA1E-BC11-496B-B2DE-E79569EC400D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId5"/>
 </worksheet>
 </file>
--- a/documentation/ProjectBudget.xlsx
+++ b/documentation/ProjectBudget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kehwu\OneDrive\Desktop\Lazy School Folder\CENG317\EmegensUI (Automotive UI)\emegensui-automotive-ui\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77929596-C59D-454D-AD08-1A083E7C7B7D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFF6805-0A12-4E41-B97D-57FD7B645337}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4695" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{DF219F94-FA5E-4361-8FF9-C0B1F7CCF8F9}"/>
+    <workbookView xWindow="2130" yWindow="2235" windowWidth="21600" windowHeight="11385" xr2:uid="{DF219F94-FA5E-4361-8FF9-C0B1F7CCF8F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Product (Name)</t>
   </si>
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t>U-Blox.com http://tiny.cc/ctgbdz</t>
+  </si>
+  <si>
+    <t>Parts Kit</t>
+  </si>
+  <si>
+    <t>Parts Kit already bought from first year.</t>
+  </si>
+  <si>
+    <t>Humber College</t>
   </si>
 </sst>
 </file>
@@ -210,7 +219,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -235,6 +244,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -561,7 +573,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,17 +589,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -733,6 +745,33 @@
       <c r="I6" s="6">
         <f>E6+F6+G6+H6</f>
         <v>91.38000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <f>E7+F7+G7+H7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">

--- a/documentation/ProjectBudget.xlsx
+++ b/documentation/ProjectBudget.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kehwu\OneDrive\Desktop\Lazy School Folder\CENG317\EmegensUI (Automotive UI)\emegensui-automotive-ui\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFF6805-0A12-4E41-B97D-57FD7B645337}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA089CA-F1B3-4081-8104-4D8BFF1F6AEB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="2235" windowWidth="21600" windowHeight="11385" xr2:uid="{DF219F94-FA5E-4361-8FF9-C0B1F7CCF8F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DF219F94-FA5E-4361-8FF9-C0B1F7CCF8F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$14</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -570,10 +573,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A39638-06A2-4EDE-9BF1-5F6DF056162B}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,6 +842,6 @@
     <hyperlink ref="D6" r:id="rId4" xr:uid="{7D93DA1E-BC11-496B-B2DE-E79569EC400D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId5"/>
+  <pageSetup paperSize="9" scale="84" orientation="landscape" r:id="rId5"/>
 </worksheet>
 </file>